--- a/CodeSystem-pco-bothersome-health-concern-concepts.xlsx
+++ b/CodeSystem-pco-bothersome-health-concern-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-bothersome-health-concern-concepts.xlsx
+++ b/CodeSystem-pco-bothersome-health-concern-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-bothersome-health-concern-concepts.xlsx
+++ b/CodeSystem-pco-bothersome-health-concern-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -159,7 +159,7 @@
     <t>Feeling pain</t>
   </si>
   <si>
-    <t>medications</t>
+    <t>unsteady</t>
   </si>
   <si>
     <t>Feeling unsteady; trouble balancing/walking</t>
